--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2139,6 +2139,790 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>25</v>
+      </c>
+      <c r="F39" t="n">
+        <v>25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1768</v>
+      </c>
+      <c r="H39" t="n">
+        <v>70.72</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1768</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
+      </c>
+      <c r="F40" t="n">
+        <v>26</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1626</v>
+      </c>
+      <c r="H40" t="n">
+        <v>62.54</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>62.54</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1563.46</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1579</v>
+      </c>
+      <c r="H41" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1579</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>25</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1550</v>
+      </c>
+      <c r="H42" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1490.38</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>25</v>
+      </c>
+      <c r="F43" t="n">
+        <v>32</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1547</v>
+      </c>
+      <c r="H43" t="n">
+        <v>48.34</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <v>338.38</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>21.87%</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1208.62</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1520</v>
+      </c>
+      <c r="H44" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>253.35</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1266.65</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-253</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>32</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1478</v>
+      </c>
+      <c r="H45" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>323.33</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>21.88%</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1154.67</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1453</v>
+      </c>
+      <c r="H46" t="n">
+        <v>58.12</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1453</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1450</v>
+      </c>
+      <c r="H47" t="n">
+        <v>58</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1450</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>25</v>
+      </c>
+      <c r="F48" t="n">
+        <v>25</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1391</v>
+      </c>
+      <c r="H48" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1391</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1333</v>
+      </c>
+      <c r="H49" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1333</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>25</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1327</v>
+      </c>
+      <c r="H50" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1327</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>25</v>
+      </c>
+      <c r="F51" t="n">
+        <v>25</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1318</v>
+      </c>
+      <c r="H51" t="n">
+        <v>52.72</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1318</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>25</v>
+      </c>
+      <c r="F52" t="n">
+        <v>25</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1266</v>
+      </c>
+      <c r="H52" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1266</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>25</v>
+      </c>
+      <c r="F53" t="n">
+        <v>25</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1259</v>
+      </c>
+      <c r="H53" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1259</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>25</v>
+      </c>
+      <c r="F54" t="n">
+        <v>25</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1128</v>
+      </c>
+      <c r="H54" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1128</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -2153,7 +2937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2264,6 +3048,31 @@
         <v>115.7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-10 09:01:47</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1037.22</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64.83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>338.38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2923,6 +2923,790 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>25</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1741</v>
+      </c>
+      <c r="H55" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1741</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>25</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1640</v>
+      </c>
+      <c r="H56" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1640</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>25</v>
+      </c>
+      <c r="F57" t="n">
+        <v>25</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1606</v>
+      </c>
+      <c r="H57" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1606</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>25</v>
+      </c>
+      <c r="F58" t="n">
+        <v>26</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1605</v>
+      </c>
+      <c r="H58" t="n">
+        <v>61.73</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <v>61.73</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1543.27</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1534</v>
+      </c>
+      <c r="H59" t="n">
+        <v>61.36</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1534</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>25</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1523</v>
+      </c>
+      <c r="H60" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1523</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>25</v>
+      </c>
+      <c r="F61" t="n">
+        <v>25</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1473</v>
+      </c>
+      <c r="H61" t="n">
+        <v>58.92</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>25</v>
+      </c>
+      <c r="F62" t="n">
+        <v>25</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1418</v>
+      </c>
+      <c r="H62" t="n">
+        <v>56.72</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1418</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>25</v>
+      </c>
+      <c r="F63" t="n">
+        <v>27</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1395</v>
+      </c>
+      <c r="H63" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>103.34</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1291.66</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>25</v>
+      </c>
+      <c r="F64" t="n">
+        <v>25</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1370</v>
+      </c>
+      <c r="H64" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1370</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>25</v>
+      </c>
+      <c r="F65" t="n">
+        <v>24</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1332</v>
+      </c>
+      <c r="H65" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1332</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>25</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H66" t="n">
+        <v>52.16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1304</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>25</v>
+      </c>
+      <c r="F67" t="n">
+        <v>24</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1256</v>
+      </c>
+      <c r="H67" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1256</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>25</v>
+      </c>
+      <c r="F68" t="n">
+        <v>24</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1233</v>
+      </c>
+      <c r="H68" t="n">
+        <v>51.38</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1233</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>25</v>
+      </c>
+      <c r="F69" t="n">
+        <v>27</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1164</v>
+      </c>
+      <c r="H69" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>86.22</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1077.78</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>25</v>
+      </c>
+      <c r="F70" t="n">
+        <v>25</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1061</v>
+      </c>
+      <c r="H70" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1061</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -2937,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,6 +3857,31 @@
         <v>338.38</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-16 23:31:12</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>251.29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>103.34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3707,6 +3707,790 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>25</v>
+      </c>
+      <c r="F71" t="n">
+        <v>29</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1822</v>
+      </c>
+      <c r="H71" t="n">
+        <v>62.83</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" s="5" t="n">
+        <v>251.32</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>13.79%</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1570.68</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>25</v>
+      </c>
+      <c r="F72" t="n">
+        <v>25</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1639</v>
+      </c>
+      <c r="H72" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1639</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>25</v>
+      </c>
+      <c r="F73" t="n">
+        <v>26</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1551</v>
+      </c>
+      <c r="H73" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1491.35</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>25</v>
+      </c>
+      <c r="F74" t="n">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1497</v>
+      </c>
+      <c r="H74" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1497</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>25</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1492</v>
+      </c>
+      <c r="H75" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1492</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>25</v>
+      </c>
+      <c r="F76" t="n">
+        <v>25</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1468</v>
+      </c>
+      <c r="H76" t="n">
+        <v>58.72</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1468</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>25</v>
+      </c>
+      <c r="F77" t="n">
+        <v>25</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1468</v>
+      </c>
+      <c r="H77" t="n">
+        <v>58.72</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1468</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>25</v>
+      </c>
+      <c r="F78" t="n">
+        <v>30</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1450</v>
+      </c>
+      <c r="H78" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" s="5" t="n">
+        <v>241.65</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1208.35</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>25</v>
+      </c>
+      <c r="F79" t="n">
+        <v>25</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1434</v>
+      </c>
+      <c r="H79" t="n">
+        <v>57.36</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1434</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>25</v>
+      </c>
+      <c r="F80" t="n">
+        <v>25</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1429</v>
+      </c>
+      <c r="H80" t="n">
+        <v>57.16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1429</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>25</v>
+      </c>
+      <c r="F81" t="n">
+        <v>25</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1397</v>
+      </c>
+      <c r="H81" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1397</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>25</v>
+      </c>
+      <c r="F82" t="n">
+        <v>26</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1372</v>
+      </c>
+      <c r="H82" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="5" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1319.23</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>25</v>
+      </c>
+      <c r="F83" t="n">
+        <v>24</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1336</v>
+      </c>
+      <c r="H83" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1336</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>25</v>
+      </c>
+      <c r="F84" t="n">
+        <v>22</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1227</v>
+      </c>
+      <c r="H84" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1227</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>25</v>
+      </c>
+      <c r="F85" t="n">
+        <v>25</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1204</v>
+      </c>
+      <c r="H85" t="n">
+        <v>48.16</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1204</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>25</v>
+      </c>
+      <c r="F86" t="n">
+        <v>26</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1173</v>
+      </c>
+      <c r="H86" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" s="5" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1127.88</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -3721,7 +4505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3882,6 +4666,31 @@
         <v>103.34</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-23 22:32:02</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>650.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40.66</v>
+      </c>
+      <c r="G8" t="n">
+        <v>251.32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,6 +4491,790 @@
         <v>-45</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>21</v>
+      </c>
+      <c r="F87" t="n">
+        <v>21</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1690</v>
+      </c>
+      <c r="H87" t="n">
+        <v>80.48</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1690</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>21</v>
+      </c>
+      <c r="F88" t="n">
+        <v>21</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1409</v>
+      </c>
+      <c r="H88" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1409</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>21</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1364</v>
+      </c>
+      <c r="H89" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1364</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>21</v>
+      </c>
+      <c r="F90" t="n">
+        <v>21</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1357</v>
+      </c>
+      <c r="H90" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1357</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>21</v>
+      </c>
+      <c r="F91" t="n">
+        <v>21</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1322</v>
+      </c>
+      <c r="H91" t="n">
+        <v>62.95</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1322</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>21</v>
+      </c>
+      <c r="F92" t="n">
+        <v>25</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1319</v>
+      </c>
+      <c r="H92" t="n">
+        <v>52.76</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" s="5" t="n">
+        <v>211.04</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>16.0%</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1107.96</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-211</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>21</v>
+      </c>
+      <c r="F93" t="n">
+        <v>21</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1197</v>
+      </c>
+      <c r="H93" t="n">
+        <v>57</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1197</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>21</v>
+      </c>
+      <c r="F94" t="n">
+        <v>22</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H94" t="n">
+        <v>54</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1134</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>21</v>
+      </c>
+      <c r="F95" t="n">
+        <v>22</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1138</v>
+      </c>
+      <c r="H95" t="n">
+        <v>51.73</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" s="5" t="n">
+        <v>51.73</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1086.27</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>21</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H96" t="n">
+        <v>53.86</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1131</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>21</v>
+      </c>
+      <c r="F97" t="n">
+        <v>23</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H97" t="n">
+        <v>48.26</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" s="5" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>8.7%</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1013.48</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>21</v>
+      </c>
+      <c r="F98" t="n">
+        <v>21</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1094</v>
+      </c>
+      <c r="H98" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1094</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>21</v>
+      </c>
+      <c r="F99" t="n">
+        <v>23</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1093</v>
+      </c>
+      <c r="H99" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" s="5" t="n">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>8.7%</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>997.96</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>21</v>
+      </c>
+      <c r="F100" t="n">
+        <v>21</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H100" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1055</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>21</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1047</v>
+      </c>
+      <c r="H101" t="n">
+        <v>49.86</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1047</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>21</v>
+      </c>
+      <c r="F102" t="n">
+        <v>21</v>
+      </c>
+      <c r="G102" t="n">
+        <v>999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>999</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -4505,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4691,6 +5475,31 @@
         <v>251.32</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-01 13:32:35</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>508.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="G9" t="n">
+        <v>211.04</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5275,6 +5275,790 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>25</v>
+      </c>
+      <c r="F103" t="n">
+        <v>25</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1681</v>
+      </c>
+      <c r="H103" t="n">
+        <v>67.23999999999999</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1681</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>25</v>
+      </c>
+      <c r="F104" t="n">
+        <v>25</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H104" t="n">
+        <v>64</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>7</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>25</v>
+      </c>
+      <c r="F105" t="n">
+        <v>25</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1538</v>
+      </c>
+      <c r="H105" t="n">
+        <v>61.52</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1538</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>25</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H106" t="n">
+        <v>60</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>25</v>
+      </c>
+      <c r="F107" t="n">
+        <v>25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1449</v>
+      </c>
+      <c r="H107" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1449</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>25</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1415</v>
+      </c>
+      <c r="H108" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1415</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>25</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1412</v>
+      </c>
+      <c r="H109" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1412</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>25</v>
+      </c>
+      <c r="F110" t="n">
+        <v>25</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1405</v>
+      </c>
+      <c r="H110" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1405</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>25</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1381</v>
+      </c>
+      <c r="H111" t="n">
+        <v>53.12</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" s="5" t="n">
+        <v>53.12</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1327.88</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>25</v>
+      </c>
+      <c r="F112" t="n">
+        <v>25</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1377</v>
+      </c>
+      <c r="H112" t="n">
+        <v>55.08</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1377</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>7</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>25</v>
+      </c>
+      <c r="F113" t="n">
+        <v>25</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1324</v>
+      </c>
+      <c r="H113" t="n">
+        <v>52.96</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>25</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1316</v>
+      </c>
+      <c r="H114" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1316</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>25</v>
+      </c>
+      <c r="F115" t="n">
+        <v>25</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1290</v>
+      </c>
+      <c r="H115" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1290</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>25</v>
+      </c>
+      <c r="F116" t="n">
+        <v>26</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1210</v>
+      </c>
+      <c r="H116" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" s="5" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1163.46</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>25</v>
+      </c>
+      <c r="F117" t="n">
+        <v>25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1188</v>
+      </c>
+      <c r="H117" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1188</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>25</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1105</v>
+      </c>
+      <c r="H118" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" s="5" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1062.5</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -5289,7 +6073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5500,6 +6284,31 @@
         <v>211.04</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-07 22:39:14</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>142.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>53.12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6059,6 +6059,790 @@
         <v>-42</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>30</v>
+      </c>
+      <c r="F119" t="n">
+        <v>30</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1983</v>
+      </c>
+      <c r="H119" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1983</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>30</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H120" t="n">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1978</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>8</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>30</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1883</v>
+      </c>
+      <c r="H121" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1883</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>30</v>
+      </c>
+      <c r="F122" t="n">
+        <v>32</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1811</v>
+      </c>
+      <c r="H122" t="n">
+        <v>56.59</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" s="5" t="n">
+        <v>113.18</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>6.25%</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1697.82</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>8</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>30</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1797</v>
+      </c>
+      <c r="H123" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1797</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>8</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>30</v>
+      </c>
+      <c r="F124" t="n">
+        <v>30</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1792</v>
+      </c>
+      <c r="H124" t="n">
+        <v>59.73</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1792</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>8</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>30</v>
+      </c>
+      <c r="F125" t="n">
+        <v>32</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1783</v>
+      </c>
+      <c r="H125" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" s="5" t="n">
+        <v>111.44</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>6.25%</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1671.56</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>8</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>30</v>
+      </c>
+      <c r="F126" t="n">
+        <v>30</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1782</v>
+      </c>
+      <c r="H126" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1782</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>8</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>30</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1774</v>
+      </c>
+      <c r="H127" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" s="5" t="n">
+        <v>57.23</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1716.77</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>8</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>30</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1764</v>
+      </c>
+      <c r="H128" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1764</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>30</v>
+      </c>
+      <c r="F129" t="n">
+        <v>37</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1713</v>
+      </c>
+      <c r="H129" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="I129" t="n">
+        <v>7</v>
+      </c>
+      <c r="J129" s="5" t="n">
+        <v>324.1</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>18.92%</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1388.9</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-324</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>30</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1707</v>
+      </c>
+      <c r="H130" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1707</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>8</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>30</v>
+      </c>
+      <c r="F131" t="n">
+        <v>31</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1706</v>
+      </c>
+      <c r="H131" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" s="5" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1650.97</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>30</v>
+      </c>
+      <c r="F132" t="n">
+        <v>30</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1703</v>
+      </c>
+      <c r="H132" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1703</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>30</v>
+      </c>
+      <c r="F133" t="n">
+        <v>30</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1692</v>
+      </c>
+      <c r="H133" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1692</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>30</v>
+      </c>
+      <c r="F134" t="n">
+        <v>31</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1431</v>
+      </c>
+      <c r="H134" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" s="5" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1384.84</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -6073,7 +6857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6309,6 +7093,31 @@
         <v>53.12</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-22 00:56:40</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>707.14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>324.1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,6 +6843,790 @@
         <v>-46</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>9</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>21</v>
+      </c>
+      <c r="F135" t="n">
+        <v>21</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1594</v>
+      </c>
+      <c r="H135" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1594</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>9</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>21</v>
+      </c>
+      <c r="F136" t="n">
+        <v>23</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1434</v>
+      </c>
+      <c r="H136" t="n">
+        <v>62.35</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" s="5" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>8.7%</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1309.3</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>9</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>21</v>
+      </c>
+      <c r="F137" t="n">
+        <v>22</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1387</v>
+      </c>
+      <c r="H137" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" s="5" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1323.95</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>9</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>21</v>
+      </c>
+      <c r="F138" t="n">
+        <v>21</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1373</v>
+      </c>
+      <c r="H138" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1373</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>9</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>21</v>
+      </c>
+      <c r="F139" t="n">
+        <v>23</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1339</v>
+      </c>
+      <c r="H139" t="n">
+        <v>58.22</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" s="5" t="n">
+        <v>116.44</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>8.7%</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1222.56</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>9</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>21</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1305</v>
+      </c>
+      <c r="H140" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" s="5" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1245.68</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>9</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>21</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1252</v>
+      </c>
+      <c r="H141" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1252</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>9</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>21</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1216</v>
+      </c>
+      <c r="H142" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1216</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>9</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>21</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1204</v>
+      </c>
+      <c r="H143" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1204</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>9</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>21</v>
+      </c>
+      <c r="F144" t="n">
+        <v>22</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1197</v>
+      </c>
+      <c r="H144" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" s="5" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1142.59</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>9</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>21</v>
+      </c>
+      <c r="F145" t="n">
+        <v>22</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1189</v>
+      </c>
+      <c r="H145" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" s="5" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1134.95</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>9</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>21</v>
+      </c>
+      <c r="F146" t="n">
+        <v>22</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1179</v>
+      </c>
+      <c r="H146" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="5" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1125.41</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>9</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>21</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H147" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1123</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>9</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>21</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1074</v>
+      </c>
+      <c r="H148" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1074</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>9</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>21</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19</v>
+      </c>
+      <c r="G149" t="n">
+        <v>969</v>
+      </c>
+      <c r="H149" t="n">
+        <v>51</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>969</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>9</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>21</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18</v>
+      </c>
+      <c r="G150" t="n">
+        <v>705</v>
+      </c>
+      <c r="H150" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>705</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -6857,7 +7641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7118,6 +7902,31 @@
         <v>324.1</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-29 00:53:34</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>525.5599999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>124.7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
+++ b/CascadeProjects/windsurf-project/fantasy-trade-analyzer/data/audit_logs/adjustment_audit_log_Mr_Squidward’s_Gay_Layup_Line.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7627,6 +7627,790 @@
         <v>0</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>10</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>LAMELOcan Airlines Flight 11</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>z4ag3f5qmdgtlka8</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>25</v>
+      </c>
+      <c r="F151" t="n">
+        <v>26</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1620</v>
+      </c>
+      <c r="H151" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" s="5" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1557.69</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>10</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>George W Bush</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3s2b2okkmdgtlka5</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>25</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1619</v>
+      </c>
+      <c r="H152" t="n">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1619</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>10</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Kevin O’Leary</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>467wxistmdgtlka3</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>25</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1604</v>
+      </c>
+      <c r="H153" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1604</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>10</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Daaaaaa Jankees lose</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>7wets94rmdgtlkaa</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>25</v>
+      </c>
+      <c r="F154" t="n">
+        <v>25</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1595</v>
+      </c>
+      <c r="H154" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1595</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>10</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>The Pentagon</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>wjjl8qwsmdgtlka2</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>25</v>
+      </c>
+      <c r="F155" t="n">
+        <v>25</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1589</v>
+      </c>
+      <c r="H155" t="n">
+        <v>63.56</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1589</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>10</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>The Noto Son</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>zjydlxwhmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>25</v>
+      </c>
+      <c r="F156" t="n">
+        <v>25</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1543</v>
+      </c>
+      <c r="H156" t="n">
+        <v>61.72</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1543</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>10</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A Stupid Silly Cat</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0l1gmqj7mdgtlka6</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>25</v>
+      </c>
+      <c r="F157" t="n">
+        <v>25</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1534</v>
+      </c>
+      <c r="H157" t="n">
+        <v>61.36</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1534</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>10</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>President of Retarded Operations</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4trk7d98mdgtlkab</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>25</v>
+      </c>
+      <c r="F158" t="n">
+        <v>25</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1503</v>
+      </c>
+      <c r="H158" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1503</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>10</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>I'm Your Uber Driver</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>lc47vt4pmdgtlka4</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>25</v>
+      </c>
+      <c r="F159" t="n">
+        <v>25</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1439</v>
+      </c>
+      <c r="H159" t="n">
+        <v>57.56</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1439</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>10</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Jesus Christ</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>zh45p7homdgtlka1</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>25</v>
+      </c>
+      <c r="F160" t="n">
+        <v>25</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1395</v>
+      </c>
+      <c r="H160" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1395</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>10</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Haliban’s Heroes</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>rhb3mk9hmdgtlka9</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>25</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1303</v>
+      </c>
+      <c r="H161" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1303</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>10</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>9/11 First Tower</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>dmx5bjkpmdgtlkab</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>25</v>
+      </c>
+      <c r="F162" t="n">
+        <v>25</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1264</v>
+      </c>
+      <c r="H162" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1264</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>10</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Kamala's Gunz</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>hxzn4i3jmdgtlka7</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>25</v>
+      </c>
+      <c r="F163" t="n">
+        <v>26</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1180</v>
+      </c>
+      <c r="H163" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" s="5" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1134.62</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>10</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>9/11 Second Tower</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>68fvh5u4mdgtlka8</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>25</v>
+      </c>
+      <c r="F164" t="n">
+        <v>23</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1169</v>
+      </c>
+      <c r="H164" t="n">
+        <v>50.83</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1169</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>10</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>CaitlinClark KeepsItHairy</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>qmjw5ehtmduykj4n</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>25</v>
+      </c>
+      <c r="F165" t="n">
+        <v>22</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1103</v>
+      </c>
+      <c r="H165" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1103</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>10</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PartyMarty__</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>oi0ae85dmdmdspm2</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>25</v>
+      </c>
+      <c r="F166" t="n">
+        <v>25</v>
+      </c>
+      <c r="G166" t="n">
+        <v>865</v>
+      </c>
+      <c r="H166" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>865</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -7641,7 +8425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7927,6 +8711,31 @@
         <v>124.7</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-05 00:12:13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>107.69</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>62.31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
